--- a/REGULAR/CEO/MONTENEGRO, RODELIO.xlsx
+++ b/REGULAR/CEO/MONTENEGRO, RODELIO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="342">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1045,6 +1045,21 @@
   </si>
   <si>
     <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/15,16/2023</t>
+  </si>
+  <si>
+    <t>11/30/2023,12/01/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>11/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1947,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1990,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2054,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2114,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2180,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2243,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2341,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2400,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2465,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2508,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2583,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2769,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2835,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2893,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2959,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +3015,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3090,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3133,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3199,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3255,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3338,7 +3353,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3401,7 +3416,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3467,7 +3482,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K724" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K726" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3845,12 +3860,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K724"/>
+  <dimension ref="A2:K726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A507" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A525" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:E720"/>
-      <selection pane="bottomLeft" activeCell="G522" sqref="G522"/>
+      <selection pane="bottomLeft" activeCell="E540" sqref="E540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4022,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33.894000000000062</v>
+        <v>40.144000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4017,7 +4032,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>81.175000000000011</v>
+        <v>81.425000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15588,13 +15603,15 @@
       <c r="B537" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C537" s="13"/>
+      <c r="C537" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G537" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H537" s="39">
         <v>1</v>
@@ -15610,13 +15627,15 @@
         <v>45139</v>
       </c>
       <c r="B538" s="20"/>
-      <c r="C538" s="13"/>
+      <c r="C538" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D538" s="39"/>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G538" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
@@ -15628,13 +15647,15 @@
         <v>45170</v>
       </c>
       <c r="B539" s="20"/>
-      <c r="C539" s="13"/>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G539" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
@@ -15646,13 +15667,15 @@
         <v>45200</v>
       </c>
       <c r="B540" s="20"/>
-      <c r="C540" s="13"/>
+      <c r="C540" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G540" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
@@ -15663,25 +15686,35 @@
       <c r="A541" s="40">
         <v>45231</v>
       </c>
-      <c r="B541" s="20"/>
-      <c r="C541" s="13"/>
+      <c r="B541" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C541" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D541" s="39"/>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
-      <c r="G541" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H541" s="39"/>
+      <c r="G541" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H541" s="39">
+        <v>2</v>
+      </c>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="K541" s="20" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45261</v>
       </c>
-      <c r="B542" s="20"/>
+      <c r="B542" s="20" t="s">
+        <v>337</v>
+      </c>
       <c r="C542" s="13"/>
       <c r="D542" s="39"/>
       <c r="E542" s="9"/>
@@ -15690,42 +15723,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H542" s="39"/>
+      <c r="H542" s="39">
+        <v>2</v>
+      </c>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
+      <c r="K542" s="20" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B543" s="20"/>
+      <c r="A543" s="40"/>
+      <c r="B543" s="20" t="s">
+        <v>337</v>
+      </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H543" s="39"/>
+      <c r="G543" s="13"/>
+      <c r="H543" s="39">
+        <v>2</v>
+      </c>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
+      <c r="K543" s="20" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A544" s="40">
-        <v>45323</v>
+      <c r="A544" s="48" t="s">
+        <v>340</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
-      <c r="G544" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G544" s="13"/>
       <c r="H544" s="39"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
@@ -15733,7 +15768,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15751,7 +15786,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15769,7 +15804,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15787,7 +15822,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15805,7 +15840,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15823,7 +15858,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15841,7 +15876,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15859,7 +15894,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15877,7 +15912,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15895,7 +15930,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15913,7 +15948,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15931,7 +15966,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15949,7 +15984,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15967,7 +16002,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15985,7 +16020,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16003,7 +16038,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16021,7 +16056,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16039,7 +16074,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16057,7 +16092,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16075,7 +16110,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16093,7 +16128,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16111,7 +16146,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16129,7 +16164,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16147,7 +16182,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16165,7 +16200,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16183,7 +16218,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16201,7 +16236,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16219,7 +16254,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16237,7 +16272,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16255,7 +16290,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16273,7 +16308,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16291,7 +16326,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16309,7 +16344,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16327,7 +16362,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16345,7 +16380,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16363,7 +16398,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16381,7 +16416,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16399,7 +16434,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16417,7 +16452,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16435,7 +16470,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16453,7 +16488,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16471,7 +16506,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16489,7 +16524,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16507,7 +16542,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16525,7 +16560,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16543,7 +16578,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16561,7 +16596,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16579,7 +16614,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16597,7 +16632,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16615,7 +16650,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16633,7 +16668,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16651,7 +16686,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16669,7 +16704,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16687,7 +16722,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16705,7 +16740,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16723,7 +16758,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16741,7 +16776,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16759,7 +16794,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -16777,7 +16812,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -16795,7 +16830,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16813,7 +16848,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16831,7 +16866,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16849,7 +16884,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16867,7 +16902,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16885,7 +16920,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16903,7 +16938,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16921,7 +16956,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16939,7 +16974,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16957,7 +16992,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16975,7 +17010,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16993,7 +17028,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17011,7 +17046,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17029,7 +17064,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17047,7 +17082,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17065,7 +17100,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17083,7 +17118,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17101,7 +17136,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17119,7 +17154,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17137,7 +17172,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17155,7 +17190,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17173,7 +17208,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17191,7 +17226,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17209,7 +17244,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17227,7 +17262,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17245,7 +17280,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17263,7 +17298,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17281,7 +17316,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17299,7 +17334,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17317,7 +17352,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17335,7 +17370,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17353,7 +17388,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17371,7 +17406,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17389,7 +17424,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17407,7 +17442,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17425,7 +17460,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17443,7 +17478,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17461,7 +17496,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17479,7 +17514,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17497,7 +17532,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17515,7 +17550,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17533,7 +17568,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17551,7 +17586,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -17569,7 +17604,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -17587,7 +17622,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>48488</v>
+        <v>48427</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17605,7 +17640,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>48519</v>
+        <v>48458</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17623,7 +17658,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>48549</v>
+        <v>48488</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17641,7 +17676,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>48580</v>
+        <v>48519</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17659,7 +17694,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>48611</v>
+        <v>48549</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17677,7 +17712,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>48639</v>
+        <v>48580</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17695,7 +17730,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>48670</v>
+        <v>48611</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17713,7 +17748,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>48700</v>
+        <v>48639</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17731,7 +17766,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>48731</v>
+        <v>48670</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17749,7 +17784,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>48761</v>
+        <v>48700</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17767,7 +17802,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>48792</v>
+        <v>48731</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17785,7 +17820,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>48823</v>
+        <v>48761</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17803,7 +17838,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>48853</v>
+        <v>48792</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17821,7 +17856,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>48884</v>
+        <v>48823</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17839,7 +17874,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>48914</v>
+        <v>48853</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17857,7 +17892,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>48945</v>
+        <v>48884</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17875,7 +17910,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>48976</v>
+        <v>48914</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17893,7 +17928,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>49004</v>
+        <v>48945</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17911,7 +17946,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>49035</v>
+        <v>48976</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17929,7 +17964,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>49065</v>
+        <v>49004</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17947,7 +17982,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>49096</v>
+        <v>49035</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17965,7 +18000,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>49126</v>
+        <v>49065</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17983,7 +18018,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>49157</v>
+        <v>49096</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18001,7 +18036,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>49188</v>
+        <v>49126</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18019,7 +18054,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>49218</v>
+        <v>49157</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18037,7 +18072,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>49249</v>
+        <v>49188</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18055,7 +18090,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>49279</v>
+        <v>49218</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18073,7 +18108,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>49310</v>
+        <v>49249</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18091,7 +18126,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>49341</v>
+        <v>49279</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18109,7 +18144,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>49369</v>
+        <v>49310</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18127,7 +18162,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>49400</v>
+        <v>49341</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18145,7 +18180,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>49430</v>
+        <v>49369</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18163,7 +18198,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>49461</v>
+        <v>49400</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18181,7 +18216,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>49491</v>
+        <v>49430</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18199,7 +18234,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>49522</v>
+        <v>49461</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18217,7 +18252,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>49553</v>
+        <v>49491</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18235,7 +18270,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>49583</v>
+        <v>49522</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18253,7 +18288,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>49614</v>
+        <v>49553</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18271,7 +18306,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>49644</v>
+        <v>49583</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18289,7 +18324,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>49675</v>
+        <v>49614</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18307,7 +18342,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>49706</v>
+        <v>49644</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18325,7 +18360,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>49735</v>
+        <v>49675</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18343,7 +18378,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>49766</v>
+        <v>49706</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18361,7 +18396,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>49796</v>
+        <v>49735</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18379,7 +18414,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>49827</v>
+        <v>49766</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18397,7 +18432,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>49857</v>
+        <v>49796</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18415,7 +18450,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>49888</v>
+        <v>49827</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18433,7 +18468,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>49919</v>
+        <v>49857</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18451,7 +18486,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>49949</v>
+        <v>49888</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18469,7 +18504,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>49980</v>
+        <v>49919</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18487,7 +18522,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>50010</v>
+        <v>49949</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18505,7 +18540,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>50041</v>
+        <v>49980</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18523,7 +18558,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>50072</v>
+        <v>50010</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18541,7 +18576,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>50100</v>
+        <v>50041</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18559,7 +18594,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>50131</v>
+        <v>50072</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18577,7 +18612,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>50161</v>
+        <v>50100</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18595,7 +18630,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>50192</v>
+        <v>50131</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18613,7 +18648,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>50222</v>
+        <v>50161</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18631,7 +18666,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>50253</v>
+        <v>50192</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18649,7 +18684,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>50284</v>
+        <v>50222</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18667,7 +18702,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>50314</v>
+        <v>50253</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18685,7 +18720,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>50345</v>
+        <v>50284</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18703,7 +18738,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>50375</v>
+        <v>50314</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18721,7 +18756,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>50406</v>
+        <v>50345</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18739,7 +18774,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>50437</v>
+        <v>50375</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18757,7 +18792,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>50465</v>
+        <v>50406</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18775,7 +18810,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>50496</v>
+        <v>50437</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18793,7 +18828,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>50526</v>
+        <v>50465</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18811,7 +18846,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>50557</v>
+        <v>50496</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18829,7 +18864,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>50587</v>
+        <v>50526</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18847,7 +18882,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>50618</v>
+        <v>50557</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18865,7 +18900,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>50649</v>
+        <v>50587</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18883,7 +18918,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>50679</v>
+        <v>50618</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18900,7 +18935,9 @@
       <c r="K720" s="20"/>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A721" s="40"/>
+      <c r="A721" s="40">
+        <v>50649</v>
+      </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
       <c r="D721" s="39"/>
@@ -18916,7 +18953,9 @@
       <c r="K721" s="20"/>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A722" s="40"/>
+      <c r="A722" s="40">
+        <v>50679</v>
+      </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
       <c r="D722" s="39"/>
@@ -18948,20 +18987,52 @@
       <c r="K723" s="20"/>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="41"/>
-      <c r="B724" s="15"/>
-      <c r="C724" s="42"/>
-      <c r="D724" s="43"/>
+      <c r="A724" s="40"/>
+      <c r="B724" s="20"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="39"/>
       <c r="E724" s="9"/>
-      <c r="F724" s="15"/>
-      <c r="G724" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H724" s="43"/>
+      <c r="F724" s="20"/>
+      <c r="G724" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H724" s="39"/>
       <c r="I724" s="9"/>
-      <c r="J724" s="12"/>
-      <c r="K724" s="15"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="20"/>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" s="40"/>
+      <c r="B725" s="20"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="39"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="20"/>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="39"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="20"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A726" s="41"/>
+      <c r="B726" s="15"/>
+      <c r="C726" s="42"/>
+      <c r="D726" s="43"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="15"/>
+      <c r="G726" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="43"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="12"/>
+      <c r="K726" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
